--- a/src/test/resources/TestData/DataExcel.xlsx
+++ b/src/test/resources/TestData/DataExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tusha\git\LMSRestAssuredAPIAug2023\LMS_RestassuredAPI_BDD\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repo download Folder Aug 2023\LMS-Rest-Assured-API-Testing\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA45CA07-1C11-41AD-9F49-B806AE243DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCFAB86-2CFC-4949-8E80-8CBF47926437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{73EA3766-16BF-4183-83E6-A22A49A2E0C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{73EA3766-16BF-4183-83E6-A22A49A2E0C6}"/>
   </bookViews>
   <sheets>
     <sheet name="programPostData" sheetId="2" r:id="rId1"/>
@@ -219,9 +219,6 @@
     <t>Learning RestAssured API</t>
   </si>
   <si>
-    <t xml:space="preserve">SDET-Learning REST API </t>
-  </si>
-  <si>
     <t>New User for Admin role</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>GC-EAD</t>
   </si>
   <si>
-    <t>SDET01-100</t>
-  </si>
-  <si>
     <t>inactive</t>
   </si>
   <si>
@@ -310,6 +304,12 @@
   </si>
   <si>
     <t>Learning Selenium using Javascript</t>
+  </si>
+  <si>
+    <t>SDET-Learning REST API Postman</t>
+  </si>
+  <si>
+    <t>SDET10-</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,12 +708,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -722,40 +722,40 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -763,13 +763,13 @@
         <v>12345</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13E17BA-C150-4E4C-9723-86614A70260F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,45 +805,45 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7933EB-B12C-4508-B919-C5C7CBB0B968}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,13 +883,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -970,12 +970,12 @@
         <v>54</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -984,19 +984,19 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
       </c>
       <c r="I2">
         <v>1122336789</v>
@@ -1005,13 +1005,13 @@
         <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
         <v>66</v>
-      </c>
-      <c r="M2" t="s">
-        <v>67</v>
       </c>
       <c r="N2" t="s">
         <v>3</v>
@@ -1083,12 +1083,12 @@
         <v>54</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -1097,19 +1097,19 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
       </c>
       <c r="I2">
         <v>1122336789</v>
@@ -1118,13 +1118,13 @@
         <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
         <v>66</v>
-      </c>
-      <c r="M2" t="s">
-        <v>67</v>
       </c>
       <c r="N2" t="s">
         <v>3</v>
